--- a/data/trans_bre/P73-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P73-Habitat-trans_bre.xlsx
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 13,47</t>
+          <t>-11,02; 13,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 25,19</t>
+          <t>-2,09; 25,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 13,59</t>
+          <t>-10,68; 13,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 22,46</t>
+          <t>-14,92; 22,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 51,79</t>
+          <t>-3,08; 52,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 24,01</t>
+          <t>-15,2; 23,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 3,15</t>
+          <t>-7,77; 2,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 5,02</t>
+          <t>-6,62; 4,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 5,11</t>
+          <t>-6,66; 5,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 5,05</t>
+          <t>-11,71; 4,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 7,63</t>
+          <t>-9,59; 7,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 8,48</t>
+          <t>-10,04; 8,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 4,23</t>
+          <t>-4,26; 4,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 5,0</t>
+          <t>-3,53; 5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,84</t>
+          <t>-1,11; 7,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 6,6</t>
+          <t>-6,18; 6,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 7,96</t>
+          <t>-5,28; 8,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 13,1</t>
+          <t>-1,7; 12,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -0,28</t>
+          <t>-10,81; -0,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,22</t>
+          <t>-5,15; 4,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,83</t>
+          <t>-8,93; 0,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,72; -0,39</t>
+          <t>-14,85; -0,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 8,19</t>
+          <t>-7,55; 7,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 2,96</t>
+          <t>-13,58; 1,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,44</t>
+          <t>-8,68; 0,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 2,94</t>
+          <t>-6,22; 2,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -6,93</t>
+          <t>-15,41; -6,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 0,71</t>
+          <t>-13,75; 0,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 4,85</t>
+          <t>-9,51; 4,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,09; -11,35</t>
+          <t>-23,48; -10,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,26</t>
+          <t>-5,04; -0,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,33</t>
+          <t>-2,34; 2,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,92</t>
+          <t>-5,46; -0,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,35</t>
+          <t>-7,55; -0,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,66</t>
+          <t>-3,51; 3,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -1,49</t>
+          <t>-8,45; -1,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P73-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P73-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 13,78</t>
+          <t>-10,24; 13,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 25,1</t>
+          <t>-1,72; 26,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 13,55</t>
+          <t>-11,33; 13,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 22,78</t>
+          <t>-13,61; 22,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 52,34</t>
+          <t>-3,38; 53,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 23,96</t>
+          <t>-15,78; 23,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 2,98</t>
+          <t>-8,25; 2,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 4,75</t>
+          <t>-7,51; 4,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 5,32</t>
+          <t>-6,12; 5,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 4,7</t>
+          <t>-12,06; 4,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 7,62</t>
+          <t>-10,52; 6,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 8,85</t>
+          <t>-9,17; 9,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 4,45</t>
+          <t>-4,26; 4,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,34</t>
+          <t>-3,62; 5,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 7,54</t>
+          <t>-0,91; 7,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 6,87</t>
+          <t>-6,19; 6,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 8,44</t>
+          <t>-5,38; 8,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 12,47</t>
+          <t>-1,39; 13,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,81; -0,6</t>
+          <t>-10,32; -0,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,94</t>
+          <t>-4,97; 5,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 0,85</t>
+          <t>-8,67; 1,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -0,95</t>
+          <t>-14,41; -0,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 7,86</t>
+          <t>-7,3; 8,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 1,54</t>
+          <t>-13,13; 1,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 0,37</t>
+          <t>-8,54; -0,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 2,85</t>
+          <t>-6,27; 2,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -6,67</t>
+          <t>-15,43; -6,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 0,45</t>
+          <t>-13,53; -0,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 4,7</t>
+          <t>-9,55; 4,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,48; -10,91</t>
+          <t>-23,69; -10,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -0,4</t>
+          <t>-5,18; -0,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,14</t>
+          <t>-2,78; 2,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,46; -0,78</t>
+          <t>-5,39; -0,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,55; -0,59</t>
+          <t>-7,77; -0,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,35</t>
+          <t>-4,17; 3,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -1,25</t>
+          <t>-8,3; -0,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P73-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P73-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,27 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
           <t>2,37%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 13,68</t>
+          <t>-9,97; 13,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 26,21</t>
+          <t>-1,43; 25,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 13,37</t>
+          <t>-11,67; 13,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,53; 22,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 22,51</t>
+          <t>-2,8; 51,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 53,07</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-15,78; 23,25</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-16,51; 24,01</t>
         </is>
       </c>
     </row>
@@ -735,27 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,62%</t>
+          <t>-1,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
           <t>-0,54%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 2,93</t>
+          <t>-7,83; 3,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 4,23</t>
+          <t>-6,75; 5,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 5,63</t>
+          <t>-6,41; 5,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,75; 5,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 4,62</t>
+          <t>-9,55; 7,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 6,62</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-9,17; 9,29</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-9,57; 8,48</t>
         </is>
       </c>
     </row>
@@ -835,27 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
           <t>5,35%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 4,47</t>
+          <t>-4,48; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 5,29</t>
+          <t>-3,54; 5,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,98</t>
+          <t>-0,5; 7,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,56; 6,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 6,99</t>
+          <t>-5,2; 7,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 8,3</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 13,24</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-0,84; 13,1</t>
         </is>
       </c>
     </row>
@@ -935,27 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,0%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
           <t>-5,67%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -0,15</t>
+          <t>-10,57; -0,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 5,41</t>
+          <t>-4,67; 5,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 1,05</t>
+          <t>-8,53; 1,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,72; -0,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -0,49</t>
+          <t>-6,93; 8,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 8,54</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-13,13; 1,72</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-12,84; 2,96</t>
         </is>
       </c>
     </row>
@@ -1035,27 +939,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>-2,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
           <t>-17,72%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -0,08</t>
+          <t>-8,7; 0,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 2,85</t>
+          <t>-6,07; 2,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -6,52</t>
+          <t>-15,84; -6,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,79; 0,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,53; -0,11</t>
+          <t>-9,43; 4,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 4,71</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-23,69; -10,53</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-24,09; -11,35</t>
         </is>
       </c>
     </row>
@@ -1135,27 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
           <t>-4,93%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -0,51</t>
+          <t>-5,14; -0,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,06</t>
+          <t>-2,45; 2,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,39; -0,63</t>
+          <t>-5,6; -0,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; -0,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -0,8</t>
+          <t>-3,69; 3,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,23</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; -0,99</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-8,67; -1,49</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1080,12 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P73-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P73-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,95</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>-0,05%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 13,47</t>
+          <t>-7,05; 3,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 25,19</t>
+          <t>-3,84; 6,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 13,59</t>
+          <t>-5,83; 5,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 22,46</t>
+          <t>-10,26; 5,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 51,79</t>
+          <t>-5,63; 10,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 24,01</t>
+          <t>-8,74; 8,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 3,15</t>
+          <t>-4,48; 4,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 5,02</t>
+          <t>-3,54; 5,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 5,11</t>
+          <t>-0,5; 7,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 5,05</t>
+          <t>-6,56; 6,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 7,63</t>
+          <t>-5,2; 7,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 8,48</t>
+          <t>-0,84; 13,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>-5,67%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 4,23</t>
+          <t>-10,57; -0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 5,0</t>
+          <t>-4,67; 5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,84</t>
+          <t>-8,53; 1,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 6,6</t>
+          <t>-14,72; -0,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 7,96</t>
+          <t>-6,93; 8,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 13,1</t>
+          <t>-12,84; 2,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-11,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,0%</t>
+          <t>-6,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>-2,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,67%</t>
+          <t>-17,72%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -0,28</t>
+          <t>-8,7; 0,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,22</t>
+          <t>-6,07; 2,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,83</t>
+          <t>-15,84; -6,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,72; -0,39</t>
+          <t>-13,79; 0,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 8,19</t>
+          <t>-9,43; 4,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 2,96</t>
+          <t>-24,09; -11,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,29</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>-4,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,72%</t>
+          <t>-4,93%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,44</t>
+          <t>-5,14; -0,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 2,94</t>
+          <t>-2,45; 2,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -6,93</t>
+          <t>-5,6; -0,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 0,71</t>
+          <t>-7,63; -0,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 4,85</t>
+          <t>-3,69; 3,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,09; -11,35</t>
+          <t>-8,67; -1,49</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,84</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,13</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-4,34%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-4,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; -0,26</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 2,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; -0,92</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; -0,35</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 3,66</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; -1,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P73-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P73-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 3,4</t>
+          <t>-6,4; 4,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 6,24</t>
+          <t>-3,64; 6,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 5,15</t>
+          <t>-5,83; 5,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 5,38</t>
+          <t>-9,29; 6,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 10,0</t>
+          <t>-5,28; 9,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 8,55</t>
+          <t>-8,69; 8,2</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 4,23</t>
+          <t>-4,48; 4,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 5,0</t>
+          <t>-3,34; 5,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,84</t>
+          <t>-1,06; 7,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 6,6</t>
+          <t>-6,55; 6,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 7,96</t>
+          <t>-4,86; 8,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 13,1</t>
+          <t>-1,59; 12,77</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -0,28</t>
+          <t>-10,2; -0,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,22</t>
+          <t>-5,24; 4,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,83</t>
+          <t>-9,16; 1,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,72; -0,39</t>
+          <t>-14,14; -0,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 8,19</t>
+          <t>-7,77; 7,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 2,96</t>
+          <t>-13,72; 2,12</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,44</t>
+          <t>-8,31; 0,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 2,94</t>
+          <t>-6,11; 2,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -6,93</t>
+          <t>-15,4; -6,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 0,71</t>
+          <t>-13,17; 1,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 4,85</t>
+          <t>-9,53; 4,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,09; -11,35</t>
+          <t>-23,31; -10,61</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,26</t>
+          <t>-5,12; -0,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,33</t>
+          <t>-2,36; 2,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,92</t>
+          <t>-5,57; -0,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,35</t>
+          <t>-7,69; -0,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,66</t>
+          <t>-3,57; 3,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -1,49</t>
+          <t>-8,6; -1,57</t>
         </is>
       </c>
     </row>
